--- a/medicine/Pharmacie/Cidofovir/Cidofovir.xlsx
+++ b/medicine/Pharmacie/Cidofovir/Cidofovir.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le cidofovir est un médicament antiviral développé par Antonín Holý, faisant partie de la famille des analogues nucléotidiques, analogue de la cytosine[2]. Il inhibe la réplication virale en bloquant la synthèse de l'ADN par l'ADN polymérase virale.
+Le cidofovir est un médicament antiviral développé par Antonín Holý, faisant partie de la famille des analogues nucléotidiques, analogue de la cytosine. Il inhibe la réplication virale en bloquant la synthèse de l'ADN par l'ADN polymérase virale.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Indications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Traitement de l'infection à cytomégalovirus, en particulier la rétinite à cytomégalovirus chez l'immunodéprimé, ainsi que le traitement des infections à papillomavirus.
 </t>
@@ -543,7 +557,9 @@
           <t>Mode d'administration</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Voie parentérale
 Application cutanée</t>
@@ -574,7 +590,9 @@
           <t>Pharmacocinétique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Fixation aux protéines faibles (10 %).
 Elimination principalement par voie urinaire sous forme inchangée par filtration glomérulaire et sécrétion tubulaire.
@@ -606,7 +624,9 @@
           <t>Effets indésirables</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Nausées, vomissements, asthénie, éruptions cutanées, uvéites, iritis, protéinurie, insuffisance rénale, troubles hématologiques de type neutropénie.
 </t>
@@ -637,7 +657,9 @@
           <t>Contre-indications</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Hypersensibilité connue au produit, grossesse, allaitement, insuffisance rénale, association avec d'autres médicaments néphrotoxiques.
 </t>
@@ -668,7 +690,9 @@
           <t>Informations</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Liste I.
 Réservé à l'usage hospitalier.
